--- a/va_facility_data_2025-02-20/Laredo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Laredo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Laredo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Laredo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc563ea9f8d6340a298cddfbd4e9c0fd4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R07606f573b9746f68fc751ae49dd556c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re3e93a8c2f4a4f7aad7ccad2093201d4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R00624b9e6eb84668a87b998d21a3a6cf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd55d21b84e484489ac11bc384e080a00"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4aee328d22f4d538742c55bd74b93c5"/>
   </x:sheets>
 </x:workbook>
 </file>
